--- a/apps/delphes/design_time/appdef_delphes_ff.xlsx
+++ b/apps/delphes/design_time/appdef_delphes_ff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\athena\github\trusted-service\apps\delphes\design_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AF203-474E-4378-84EB-8EF6256FDE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58294B-74D7-4207-92F3-3745DD3365EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" firstSheet="3" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="definitions" sheetId="7" r:id="rId8"/>
     <sheet name="intentions" sheetId="2" r:id="rId9"/>
     <sheet name="text_analysis" sheetId="1" r:id="rId10"/>
-    <sheet name="DECISION" sheetId="27" r:id="rId11"/>
-    <sheet name="odm" sheetId="15" r:id="rId12"/>
-    <sheet name="drools" sheetId="16" r:id="rId13"/>
+    <sheet name="llm_configs" sheetId="30" r:id="rId11"/>
+    <sheet name="DECISION" sheetId="27" r:id="rId12"/>
+    <sheet name="decision_engine_configs" sheetId="29" r:id="rId13"/>
     <sheet name="DISTRIBUTION" sheetId="28" r:id="rId14"/>
     <sheet name="email_configuration" sheetId="13" r:id="rId15"/>
     <sheet name="email_templates" sheetId="11" r:id="rId16"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="312">
   <si>
     <t>response_format_type</t>
   </si>
@@ -376,31 +376,16 @@
     <t>78235346097</t>
   </si>
   <si>
-    <t>read_from_cache</t>
-  </si>
-  <si>
-    <t>save_to_cache</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
-    <t>decision_engine</t>
-  </si>
-  <si>
     <t>distribution_engine</t>
-  </si>
-  <si>
-    <t>decision_service_url</t>
   </si>
   <si>
     <t>{prenom} {nom},
 Nous avons traité votre demande du {date_demande} en rapport avec l'expiration d'une API</t>
   </si>
   <si>
-    <t>trace_rules</t>
-  </si>
-  <si>
     <t>refugie_ou_protege_subsidiaire</t>
   </si>
   <si>
@@ -420,9 +405,6 @@
   </si>
   <si>
     <t>Votre demande de sauf-conduit</t>
-  </si>
-  <si>
-    <t>drools_param</t>
   </si>
   <si>
     <t>{prenom} {nom},
@@ -846,12 +828,6 @@
 DELPHES is an innovative, efficient solution for pre‑processing and intelligently routing applications submitted by foreign applicants to prefectural offices in France. The system is built on the Athena Trusted Services framework.</t>
   </si>
   <si>
-    <t>apps.delphes.design_time.src.decision_engine_delphes_python.CaseHandlingDecisionEngineDelphesPython</t>
-  </si>
-  <si>
-    <t>Either odm, drools or the fqn of a subclass of CaseHandlingDecisionEngine,  as: apps.delphes.design_time.src.decision_engine_delphes_python.CaseHandlingDecisionEngineDelphesPython</t>
-  </si>
-  <si>
     <t>Bonjour, 
 Je vous sollicite pour le compte de l'un de nos adhérents, Monsieur C C, dont la situation est assez complexe, et dont le numéro de la demande de renouvellement de carte de séjour est le 7500000000000000003.
 Il bénéficie actuellement du statut de protection subsidiaire et aimerait se rendre dans son pays de façon temporaire et exceptionnelle pour assister aux obsèques de son père.
@@ -979,6 +955,75 @@
   </si>
   <si>
     <t>locales</t>
+  </si>
+  <si>
+    <t>odm</t>
+  </si>
+  <si>
+    <t>IBM ODM with traces</t>
+  </si>
+  <si>
+    <t>parameter1</t>
+  </si>
+  <si>
+    <t>parameter2</t>
+  </si>
+  <si>
+    <t>parameter3</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>Hardcoded decision engine</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>engine_type</t>
+  </si>
+  <si>
+    <t>CaseHandlingDecisionEngineDelphesPython</t>
+  </si>
+  <si>
+    <t>apps.delphes.design_time.src.decision_engine_delphes_python</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>parameter2: traces/no_traces</t>
+  </si>
+  <si>
+    <t>traces</t>
+  </si>
+  <si>
+    <t>no_traces</t>
+  </si>
+  <si>
+    <t>odm traces</t>
+  </si>
+  <si>
+    <t>odm no_traces</t>
+  </si>
+  <si>
+    <t>do not rename as it is the default value for v1 legacy calls</t>
+  </si>
+  <si>
+    <t>openai1</t>
+  </si>
+  <si>
+    <t>ollama1</t>
+  </si>
+  <si>
+    <t>scaleway1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1114,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1112,6 +1157,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1412,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1440,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
@@ -1461,16 +1509,16 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1489,16 +1537,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1523,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1539,22 +1587,22 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1587,10 +1635,10 @@
     </row>
     <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1610,7 +1658,7 @@
         <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1625,46 +1673,6 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:N1"/>
@@ -1675,6 +1683,135 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DBE807-8331-4F59-AEF4-F5A2DEB4A4A8}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5987CB-B31E-4266-A5A3-C356313D0A31}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1691,84 +1828,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2560B-2446-422E-A0A3-EC959CE749E5}">
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94FBD62-D62F-48D9-8AC0-E46102572B8C}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>277</v>
+        <v>301</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B2724BA-D7EB-4960-A3AF-7147620CC45E}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{9436FA99-6901-404B-933E-E348E5D76928}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{BB69FA3A-4914-4B7C-B34E-B092DF17C3CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67526D7-3946-41B7-9C99-93B1591CF2D0}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1871,13 +2048,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1911,10 +2088,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>91</v>
@@ -1925,36 +2102,36 @@
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1997,7 +2174,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,138 +2182,138 @@
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2149,7 +2326,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,30 +2349,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -2206,10 +2383,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549C78AA-1218-455B-9887-3E0A5E59C6C7}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,79 +2407,68 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>258</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>111</v>
+        <v>197</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>256</v>
+        <v>195</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" ht="240" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2327,46 +2493,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -2392,53 +2558,53 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2451,8 +2617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2479,28 +2645,28 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>75</v>
@@ -2515,7 +2681,7 @@
         <v>80</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>15</v>
@@ -2532,52 +2698,52 @@
         <v>76</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>93</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2588,25 +2754,25 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>78</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>79</v>
@@ -2615,22 +2781,22 @@
         <v>93</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2641,25 +2807,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>87</v>
@@ -2668,22 +2834,22 @@
         <v>94</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2694,25 +2860,25 @@
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>88</v>
@@ -2721,22 +2887,22 @@
         <v>94</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2747,25 +2913,25 @@
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>100</v>
@@ -2774,75 +2940,75 @@
         <v>94</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>94</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -2853,25 +3019,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>106</v>
@@ -2880,22 +3046,22 @@
         <v>94</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>83</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2903,43 +3069,43 @@
         <v>74</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -2948,7 +3114,7 @@
         <v>84</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2959,40 +3125,40 @@
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>94</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -3001,60 +3167,60 @@
         <v>84</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>94</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3105,7 +3271,7 @@
         <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>66</v>
@@ -3116,10 +3282,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -3127,7 +3293,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>60</v>
@@ -3138,10 +3304,10 @@
         <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3149,10 +3315,10 @@
         <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3160,10 +3326,10 @@
         <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3343,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,12 +3358,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3210,10 +3376,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>14</v>
@@ -3227,10 +3393,10 @@
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -3244,10 +3410,10 @@
         <v>52</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
@@ -3258,13 +3424,13 @@
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -3278,10 +3444,10 @@
         <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3295,10 +3461,10 @@
         <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -3309,13 +3475,13 @@
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -3326,13 +3492,13 @@
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -3343,13 +3509,13 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -3360,13 +3526,13 @@
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -3377,13 +3543,13 @@
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>25</v>
@@ -3394,13 +3560,13 @@
     </row>
     <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -3411,13 +3577,13 @@
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
@@ -3428,13 +3594,13 @@
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
@@ -3445,13 +3611,13 @@
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -3462,13 +3628,13 @@
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -3479,13 +3645,13 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -3496,13 +3662,13 @@
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
@@ -3513,13 +3679,13 @@
     </row>
     <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -3530,19 +3696,19 @@
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/apps/delphes/design_time/appdef_delphes_ff.xlsx
+++ b/apps/delphes/design_time/appdef_delphes_ff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\athena\github\trusted-service\apps\delphes\design_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C58294B-74D7-4207-92F3-3745DD3365EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338306D-C368-476F-8972-03535E19B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,16 @@
     <sheet name="messages_to_requester" sheetId="20" r:id="rId5"/>
     <sheet name="case_fields" sheetId="10" r:id="rId6"/>
     <sheet name="TEXT ANALYSIS" sheetId="26" r:id="rId7"/>
-    <sheet name="definitions" sheetId="7" r:id="rId8"/>
-    <sheet name="intentions" sheetId="2" r:id="rId9"/>
-    <sheet name="text_analysis" sheetId="1" r:id="rId10"/>
-    <sheet name="llm_configs" sheetId="30" r:id="rId11"/>
-    <sheet name="DECISION" sheetId="27" r:id="rId12"/>
-    <sheet name="decision_engine_configs" sheetId="29" r:id="rId13"/>
-    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId14"/>
-    <sheet name="email_configuration" sheetId="13" r:id="rId15"/>
-    <sheet name="email_templates" sheetId="11" r:id="rId16"/>
-    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId17"/>
-    <sheet name="arrondissements" sheetId="23" r:id="rId18"/>
+    <sheet name="text_analysis" sheetId="1" r:id="rId8"/>
+    <sheet name="definitions" sheetId="7" r:id="rId9"/>
+    <sheet name="intentions" sheetId="2" r:id="rId10"/>
+    <sheet name="DECISION" sheetId="27" r:id="rId11"/>
+    <sheet name="decision_engine_configs" sheetId="29" r:id="rId12"/>
+    <sheet name="DISTRIBUTION" sheetId="28" r:id="rId13"/>
+    <sheet name="email_configuration" sheetId="13" r:id="rId14"/>
+    <sheet name="email_templates" sheetId="11" r:id="rId15"/>
+    <sheet name="APP-SPECIFIC" sheetId="22" r:id="rId16"/>
+    <sheet name="arrondissements" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,19 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="312">
-  <si>
-    <t>response_format_type</t>
-  </si>
-  <si>
-    <t>json_object or pydantic_model</t>
-  </si>
-  <si>
-    <t>pydantic_model</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="288">
   <si>
     <t>Parameter</t>
   </si>
@@ -76,12 +63,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>gpt-4o-mini</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -89,12 +70,6 @@
   </si>
   <si>
     <t>bool</t>
-  </si>
-  <si>
-    <t>llm</t>
-  </si>
-  <si>
-    <t>openai</t>
   </si>
   <si>
     <t>label_fr</t>
@@ -808,15 +783,6 @@
     <t>Attestation de Demande d’Asile (Certificate of Asylum Application)</t>
   </si>
   <si>
-    <t>prompt_format</t>
-  </si>
-  <si>
-    <t>markdown</t>
-  </si>
-  <si>
-    <t>markdown or text</t>
-  </si>
-  <si>
     <t>depot_dem_titre_autre_blocage_anef</t>
   </si>
   <si>
@@ -872,28 +838,7 @@
     <t>{departement} == 92</t>
   </si>
   <si>
-    <t>openai, ollama or scaleway</t>
-  </si>
-  <si>
     <t>Ready to copy-paste values</t>
-  </si>
-  <si>
-    <t>ollama</t>
-  </si>
-  <si>
-    <t>scaleway</t>
-  </si>
-  <si>
-    <t>gpt-4o-mini, mistral-small or mistral-small-3.1-24b-instruct-2503</t>
-  </si>
-  <si>
-    <t>mistral-small</t>
-  </si>
-  <si>
-    <t>mistral-small-3.1-24b-instruct-2503</t>
-  </si>
-  <si>
-    <t>json_object</t>
   </si>
   <si>
     <t>True</t>
@@ -960,9 +905,6 @@
     <t>odm</t>
   </si>
   <si>
-    <t>IBM ODM with traces</t>
-  </si>
-  <si>
     <t>parameter1</t>
   </si>
   <si>
@@ -975,15 +917,9 @@
     <t>comments</t>
   </si>
   <si>
-    <t>Hardcoded decision engine</t>
-  </si>
-  <si>
     <t>python</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>engine_type</t>
   </si>
   <si>
@@ -999,12 +935,6 @@
     <t>parameter2: traces/no_traces</t>
   </si>
   <si>
-    <t>traces</t>
-  </si>
-  <si>
-    <t>no_traces</t>
-  </si>
-  <si>
     <t>odm traces</t>
   </si>
   <si>
@@ -1014,16 +944,13 @@
     <t>do not rename as it is the default value for v1 legacy calls</t>
   </si>
   <si>
-    <t>openai1</t>
-  </si>
-  <si>
-    <t>ollama1</t>
-  </si>
-  <si>
-    <t>scaleway1</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>preprocessing</t>
+  </si>
+  <si>
+    <t>trace_rules</t>
+  </si>
+  <si>
+    <t>no_trace_rules</t>
   </si>
 </sst>
 </file>
@@ -1152,14 +1079,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1459,351 +1386,376 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F5"/>
+      <selection activeCell="A5" sqref="A5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:N1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DBE807-8331-4F59-AEF4-F5A2DEB4A4A8}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>278</v>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1811,14 +1763,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5987CB-B31E-4266-A5A3-C356313D0A31}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
@@ -1828,128 +1780,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94FBD62-D62F-48D9-8AC0-E46102572B8C}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>302</v>
+        <v>271</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>287</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{9436FA99-6901-404B-933E-E348E5D76928}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{BB69FA3A-4914-4B7C-B34E-B092DF17C3CC}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{9436FA99-6901-404B-933E-E348E5D76928}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{BB69FA3A-4914-4B7C-B34E-B092DF17C3CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C421946-477F-451E-AF1F-9EE7DF5B81A2}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1966,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD020DE-44B7-44EF-BEA3-8491F2595E0A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1983,63 +1922,63 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B7" s="5">
         <v>587</v>
@@ -2048,13 +1987,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -2085,53 +2024,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8AFBFA-5790-4484-BB1A-96526826C9C1}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2156,7 +2095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316FA168-2252-420B-B68F-E9525D61AA2D}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -2174,146 +2113,146 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2323,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BFE2A-0793-449F-9ABD-C5435ECE1E33}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,43 +2277,52 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,75 +2346,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="225" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -2493,46 +2441,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2558,53 +2506,53 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -2618,7 +2566,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,585 +2590,585 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3252,6 +3200,98 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F212B83-BB31-486E-8D1E-C153171C389E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3268,450 +3308,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/apps/delphes/design_time/appdef_delphes_ff.xlsx
+++ b/apps/delphes/design_time/appdef_delphes_ff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\athena\github\trusted-service\apps\delphes\design_time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338306D-C368-476F-8972-03535E19B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1AAFC-4AC2-4EEC-A2A6-8CAA20632ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="973" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP &amp; MODEL" sheetId="25" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="arrondissements" sheetId="23" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1770,7 +1771,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
@@ -2264,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{083BFE2A-0793-449F-9ABD-C5435ECE1E33}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
